--- a/jsl_20211231.xlsx
+++ b/jsl_20211231.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="低余额40 低溢价10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="低溢价" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="低溢价" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="低余额40 低溢价10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="低余额40 双低10" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="低余额前40 换手率前10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="平价底价溢价率 高价10 低溢价" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="低余额40 低溢价20 双低10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="低余额前40 换手率前10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="平价底价溢价率 高价10 低溢价" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,432 +482,392 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>113541</t>
+          <t>113034</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>荣晟转债</t>
+          <t>滨化转债</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>174.900</t>
-        </is>
+        <v>-1.33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>171.7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>175.75</t>
+          <t>170.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.628</t>
+          <t>3.514</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.17%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>63.72</t>
-        </is>
+          <t>-2.43%</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>61.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>128050</t>
+          <t>128085</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>钧达转债</t>
+          <t>鸿达转债</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>474.619</t>
-        </is>
+        <v>-0.37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>154.414</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>476.05</t>
+          <t>154.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>3.433</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.63%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>279.88</t>
-        </is>
+          <t>-1.27%</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>21.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>128111</t>
+          <t>113541</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿转债</t>
+          <t>荣晟转债</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>472.902</t>
-        </is>
+        <v>-0.21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>177.4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>476.51</t>
+          <t>177.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>1.628</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.39%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>144.96</t>
-        </is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>98.51000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>113585</t>
+          <t>128106</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>寿仙转债</t>
+          <t>华统转债</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>214.350</t>
-        </is>
+        <v>-0.17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>184.098</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>218.82</t>
+          <t>183.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>4.696</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.17%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>214.43</t>
-        </is>
+          <t>8.49%</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>127.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>128103</t>
+          <t>113009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>同德转债</t>
+          <t>广汽转债</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>190.968</t>
-        </is>
+        <v>-0.16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>108.95</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>195.51</t>
+          <t>108.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>23.785</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>21.71</t>
-        </is>
+          <t>-0.63%</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>123012</t>
+          <t>113629</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万顺转债</t>
+          <t>泉峰转债</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>188.550</t>
-        </is>
+        <v>0.23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>204.56</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>193.36</t>
+          <t>204.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>6.200</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>81.60</t>
-        </is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>128093</t>
+          <t>113026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>百川转债</t>
+          <t>核能转债</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>243.844</t>
-        </is>
+        <v>0.42</v>
+      </c>
+      <c r="E8" t="n">
+        <v>145.46</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>249.87</t>
+          <t>145.88</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.615</t>
+          <t>75.986</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.18%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
+          <t>-1.74%</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>113548</t>
+          <t>123073</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>石英转债</t>
+          <t>同和转债</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>451.020</t>
-        </is>
+        <v>0.48</v>
+      </c>
+      <c r="E9" t="n">
+        <v>178.721</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>457.06</t>
+          <t>179.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>3.583</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.83%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>77.28</t>
-        </is>
+          <t>0.12%</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>80.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>123052</t>
+          <t>128013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>飞鹿转债</t>
+          <t>洪涛转债</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>149.721</t>
-        </is>
+        <v>0.63</v>
+      </c>
+      <c r="E10" t="n">
+        <v>124.585</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>157.65</t>
+          <t>125.21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.504</t>
+          <t>10.614</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.28%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>113525</t>
+          <t>128094</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>台华转债</t>
+          <t>星帅转债</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>226.000</t>
-        </is>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>178.25</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>235.62</t>
+          <t>179.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.854</t>
+          <t>2.089</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.78%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>14.67</t>
-        </is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>28.98</v>
       </c>
     </row>
   </sheetData>
@@ -972,452 +933,392 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>113009</t>
+          <t>113541</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广汽转债</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-0.03%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>108.660</t>
-        </is>
+          <t>荣晟转债</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>177.4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>108.63</t>
+          <t>177.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23.785</t>
+          <t>1.628</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.89%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>98.51000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>113034</t>
+          <t>128050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>滨化转债</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.61%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>171.880</t>
-        </is>
+          <t>钧达转债</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E3" t="n">
+        <v>486.88</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>171.27</t>
+          <t>489.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.514</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-2.33%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>36.97</t>
-        </is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>399.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>128085</t>
+          <t>128111</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鸿达转债</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.20%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>155.300</t>
-        </is>
+          <t>中矿转债</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E4" t="n">
+        <v>474.736</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>155.50</t>
+          <t>478.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.433</t>
+          <t>1.447</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.71%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>14.74</t>
-        </is>
+          <t>6.80%</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>180.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>128106</t>
+          <t>128103</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统转债</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>181.050</t>
-        </is>
+          <t>同德转债</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E5" t="n">
+        <v>191.161</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>181.43</t>
+          <t>195.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.696</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.70%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>59.41</t>
-        </is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>36.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>113026</t>
+          <t>123012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>核能转债</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.40%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>146.310</t>
-        </is>
+          <t>万顺转债</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E6" t="n">
+        <v>186.613</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>146.71</t>
+          <t>191.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>75.986</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-1.16%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>94.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>128013</t>
+          <t>113548</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>洪涛转债</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.57%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>124.947</t>
-        </is>
+          <t>石英转债</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>446.72</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>125.52</t>
+          <t>452.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.614</t>
+          <t>1.202</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.62%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>95.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>113541</t>
+          <t>128093</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>荣晟转债</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>174.900</t>
-        </is>
+          <t>百川转债</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>242.83</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>175.75</t>
+          <t>248.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.628</t>
+          <t>1.615</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0.17%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>63.72</t>
-        </is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>31.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>123073</t>
+          <t>113585</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>同和转债</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.89%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>177.948</t>
-        </is>
+          <t>寿仙转债</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E9" t="n">
+        <v>218.46</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>178.84</t>
+          <t>225.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.583</t>
+          <t>1.008</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-0.31%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>59.04</t>
-        </is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>293.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>128050</t>
+          <t>123052</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>钧达转债</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>474.619</t>
-        </is>
+          <t>飞鹿转债</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>149.8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>476.05</t>
+          <t>158.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>1.504</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.63%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>279.88</t>
-        </is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>12.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>113629</t>
+          <t>123042</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泉峰转债</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.69%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>207.350</t>
-        </is>
+          <t>银河转债</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>404.31</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>209.04</t>
+          <t>413.72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>18.99</t>
-        </is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>270.58</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1384,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1495,19 +1396,15 @@
           <t>三超转债</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.69%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>121.500</t>
-        </is>
+      <c r="D2" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>121.47</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>147.19</t>
+          <t>147.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1517,18 +1414,16 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.29%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
+          <t>0.26%</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1540,19 +1435,15 @@
           <t>正裕转债</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.68%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>120.710</t>
-        </is>
+      <c r="D3" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="E3" t="n">
+        <v>120.65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>152.39</t>
+          <t>151.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1562,198 +1453,172 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0.20%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>113566</t>
+          <t>123045</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>翔港转债</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>37.04%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>117.700</t>
-        </is>
+          <t>雷迪转债</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>134.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>154.74</t>
+          <t>154.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.613</t>
+          <t>1.661</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.02%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>123045</t>
+          <t>113566</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>雷迪转债</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.68%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>134.819</t>
-        </is>
+          <t>翔港转债</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>117.67</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>155.50</t>
+          <t>155.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.661</t>
+          <t>1.613</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
+          <t>-0.04%</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>10.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>128079</t>
+          <t>123052</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英联转债</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.47%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>125.445</t>
-        </is>
+          <t>飞鹿转债</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149.8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>156.91</t>
+          <t>158.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.520</t>
+          <t>1.504</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.07%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>12.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>123052</t>
+          <t>128079</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>飞鹿转债</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.93%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>149.721</t>
-        </is>
+          <t>英联转债</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="E7" t="n">
+        <v>125.779</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>157.65</t>
+          <t>158.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.504</t>
+          <t>1.520</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.28%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1765,19 +1630,15 @@
           <t>凯发转债</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21.98%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>135.920</t>
-        </is>
+      <c r="D8" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E8" t="n">
+        <v>136.898</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>157.90</t>
+          <t>159.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1787,13 +1648,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.93%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>24.15</t>
-        </is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>29.11</v>
       </c>
     </row>
     <row r="9">
@@ -1810,19 +1669,15 @@
           <t>今飞转债</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>37.68%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>121.625</t>
-        </is>
+      <c r="D9" t="n">
+        <v>38</v>
+      </c>
+      <c r="E9" t="n">
+        <v>121.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>159.31</t>
+          <t>159.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1832,103 +1687,89 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.13%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>113577</t>
+          <t>113502</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>春秋转债</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>19.11%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>145.020</t>
-        </is>
+          <t>嘉澳转债</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>127.69</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>164.13</t>
+          <t>164.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.844</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.10%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>42.92</t>
-        </is>
+          <t>-0.25%</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>113502</t>
+          <t>113577</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉澳转债</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>37.03%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>128.000</t>
-        </is>
+          <t>春秋转债</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>145.43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>165.03</t>
+          <t>164.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.844</t>
+          <t>1.778</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0.01%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>51.59</v>
       </c>
     </row>
   </sheetData>
@@ -1994,432 +1835,392 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>128091</t>
+          <t>123062</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新天转债</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.16%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>200.201</t>
-        </is>
+          <t>三超转债</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>121.47</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>215.36</t>
+          <t>147.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.760</t>
+          <t>1.948</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20.72%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>999.6</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>128050</t>
+          <t>123045</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>钧达转债</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>474.619</t>
-        </is>
+          <t>雷迪转债</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>134.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>476.05</t>
+          <t>154.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>1.661</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>0.23%</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>279.88</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>123042</t>
+          <t>123052</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河转债</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.33%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>416.500</t>
-        </is>
+          <t>飞鹿转债</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>149.8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>426.83</t>
+          <t>158.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>1.504</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>215.54</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>113585</t>
+          <t>123014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>寿仙转债</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.47%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>214.350</t>
-        </is>
+          <t>凯发转债</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E5" t="n">
+        <v>136.898</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>218.82</t>
+          <t>159.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>1.66%</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>214.43</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>123043</t>
+          <t>113577</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>正元转债</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27.18%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>189.618</t>
-        </is>
+          <t>春秋转债</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>145.43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>216.80</t>
+          <t>164.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.657</t>
+          <t>1.778</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>173.25</v>
+        <v>51.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>123027</t>
+          <t>113541</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓转债</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.78%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>374.510</t>
-        </is>
+          <t>荣晟转债</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>177.4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>384.29</t>
+          <t>177.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.628</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>1.26%</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>155.2</v>
+        <v>98.51000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>128111</t>
+          <t>123012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿转债</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.61%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>472.902</t>
-        </is>
+          <t>万顺转债</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E8" t="n">
+        <v>186.613</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>476.51</t>
+          <t>191.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.39%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>144.96</v>
+        <v>94.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>128053</t>
+          <t>128103</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>尚荣转债</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.90%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>147.317</t>
-        </is>
+          <t>同德转债</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E9" t="n">
+        <v>191.161</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>173.22</t>
+          <t>195.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.902</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>1.08%</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>86.53</v>
+        <v>36.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>123012</t>
+          <t>128091</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万顺转债</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.81%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>188.550</t>
-        </is>
+          <t>新天转债</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="E10" t="n">
+        <v>192.306</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>193.36</t>
+          <t>202.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.760</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>15.96%</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>81.59999999999999</v>
+        <v>1381.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>113548</t>
+          <t>113585</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>石英转债</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.04%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>451.020</t>
-        </is>
+          <t>寿仙转债</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>218.46</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>457.06</t>
+          <t>225.35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.008</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.83%</t>
+          <t>3.11%</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>77.28</v>
+        <v>293.56</v>
       </c>
     </row>
   </sheetData>
@@ -2485,303 +2286,275 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>128050</t>
+          <t>128091</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>钧达转债</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
+          <t>新天转债</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10.62</v>
       </c>
       <c r="E2" t="n">
-        <v>474.619</v>
+        <v>192.306</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>476.05</t>
+          <t>202.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>1.760</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.63%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>279.88</t>
-        </is>
+          <t>15.96%</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1381.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>128111</t>
+          <t>128050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿转债</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.61%</t>
-        </is>
+          <t>钧达转债</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.01</v>
       </c>
       <c r="E3" t="n">
-        <v>472.902</v>
+        <v>486.88</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>476.51</t>
+          <t>489.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.39%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>144.96</t>
-        </is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>399.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>128095</t>
+          <t>113585</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷转债</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.98%</t>
-        </is>
+          <t>寿仙转债</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6.89</v>
       </c>
       <c r="E4" t="n">
-        <v>467.835</v>
+        <v>218.46</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>488.81</t>
+          <t>225.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.541</t>
+          <t>1.008</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.22%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>293.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>123031</t>
+          <t>123042</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞转债</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.02%</t>
-        </is>
+          <t>银河转债</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9.41</v>
       </c>
       <c r="E5" t="n">
-        <v>459.201</v>
+        <v>404.31</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>470.22</t>
+          <t>413.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.531</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-0.71%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>16.39</t>
-        </is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>270.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>113548</t>
+          <t>123027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>石英转债</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.04%</t>
-        </is>
+          <t>蓝晓转债</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9.92</v>
       </c>
       <c r="E6" t="n">
-        <v>451.02</v>
+        <v>372.53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>457.06</t>
+          <t>382.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.070</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.83%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>77.28</t>
-        </is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>210.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>113025</t>
+          <t>123043</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰转债</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.24%</t>
-        </is>
+          <t>正元转债</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>26.93</v>
       </c>
       <c r="E7" t="n">
-        <v>449.7</v>
+        <v>187.758</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>460.94</t>
+          <t>214.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.966</t>
+          <t>1.657</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.85%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
+          <t>-1.70%</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>209.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>123042</t>
+          <t>128111</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河转债</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.33%</t>
-        </is>
+          <t>中矿转债</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.04</v>
       </c>
       <c r="E8" t="n">
-        <v>416.5</v>
+        <v>474.736</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>426.83</t>
+          <t>478.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>1.447</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>215.54</t>
-        </is>
+          <t>6.80%</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>180.18</v>
       </c>
     </row>
     <row r="9">
@@ -2790,84 +2563,527 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>113582</t>
+          <t>128053</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>火炬转债</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.89%</t>
-        </is>
+          <t>尚荣转债</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>26.68</v>
       </c>
       <c r="E9" t="n">
-        <v>382.4</v>
+        <v>147.708</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>408.29</t>
+          <t>174.39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.178</t>
+          <t>1.902</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.75%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
+          <t>0.22%</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>110.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>113541</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>荣晟转债</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>177.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.628</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>98.51000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>123015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>蓝盾转债</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>280.35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>218.749</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>499.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.002</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>98.23999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bond_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bond_nm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>premium_rt</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dblow</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>curr_iss_amt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>increase_rt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>turnover_rt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>128050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>钧达转债</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E2" t="n">
+        <v>486.88</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>489.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.634</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>399.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>128111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中矿转债</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E3" t="n">
+        <v>474.736</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>478.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.447</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6.80%</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>180.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>128095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恩捷转债</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="E4" t="n">
+        <v>465</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>485.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.541</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-0.39%</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>晶瑞转债</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>458</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>469.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.531</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>113025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>明泰转债</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>448.45</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>460.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.966</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>113548</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>石英转债</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>446.72</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>452.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.202</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>95.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>123042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河转债</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E8" t="n">
+        <v>404.31</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>413.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>270.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>113016</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>小康转债</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>383.49</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>392.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.070</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3.94%</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>146.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>113582</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>小康转债</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.84%</t>
-        </is>
+          <t>火炬转债</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>26.22</v>
       </c>
       <c r="E10" t="n">
-        <v>381.75</v>
+        <v>382.08</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>393.59</t>
+          <t>408.30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.070</t>
+          <t>4.178</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.46%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>106.84</t>
-        </is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>4.21</v>
       </c>
     </row>
     <row r="11">
@@ -2884,17 +3100,15 @@
           <t>蓝晓转债</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.78%</t>
-        </is>
+      <c r="D11" t="n">
+        <v>9.92</v>
       </c>
       <c r="E11" t="n">
-        <v>374.51</v>
+        <v>372.53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>384.29</t>
+          <t>382.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2904,13 +3118,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>155.20</t>
-        </is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>210.83</v>
       </c>
     </row>
   </sheetData>
